--- a/spliced/falling/2023-03-25_18-01-55/accelerometer_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-01-55/accelerometer_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,199 +452,221 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-2.323234558105469</v>
+        <v>-1.97176456451416</v>
       </c>
       <c r="B2" t="n">
-        <v>1.572612762451172</v>
+        <v>1.745009422302246</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7384862899780273</v>
+        <v>0.4838592410087585</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-3.269093036651612</v>
+        <v>-1.845728397369385</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9374399185180664</v>
+        <v>1.672563552856445</v>
       </c>
       <c r="C3" t="n">
-        <v>1.780844926834106</v>
+        <v>0.5211508870124817</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-1.246297359466553</v>
+        <v>-2.323234558105469</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5547242164611816</v>
+        <v>1.572612762451172</v>
       </c>
       <c r="C4" t="n">
-        <v>1.987784385681152</v>
+        <v>0.7384862899780273</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-2.729167938232422</v>
+        <v>-3.269093036651612</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9446659088134766</v>
+        <v>0.9374399185180664</v>
       </c>
       <c r="C5" t="n">
-        <v>2.494723320007324</v>
+        <v>1.780844926834106</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-2.581250190734864</v>
+        <v>-1.246297359466553</v>
       </c>
       <c r="B6" t="n">
-        <v>-1.341118812561035</v>
+        <v>0.5547242164611816</v>
       </c>
       <c r="C6" t="n">
-        <v>3.135838031768799</v>
+        <v>1.987784385681152</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-3.531517744064331</v>
+        <v>-2.729167938232422</v>
       </c>
       <c r="B7" t="n">
-        <v>-1.318747520446777</v>
+        <v>0.9446659088134766</v>
       </c>
       <c r="C7" t="n">
-        <v>3.353370428085327</v>
+        <v>2.494723320007324</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-4.357868194580078</v>
+        <v>-2.581250190734864</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.8888802528381348</v>
+        <v>-1.341118812561035</v>
       </c>
       <c r="C8" t="n">
-        <v>1.668703079223633</v>
+        <v>3.135838031768799</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-2.958048820495605</v>
+        <v>-3.531517744064331</v>
       </c>
       <c r="B9" t="n">
-        <v>1.071966171264648</v>
+        <v>-1.318747520446777</v>
       </c>
       <c r="C9" t="n">
-        <v>2.359493732452393</v>
+        <v>3.353370428085327</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-2.444142341613769</v>
+        <v>-4.357868194580078</v>
       </c>
       <c r="B10" t="n">
-        <v>3.017045021057129</v>
+        <v>-0.8888802528381348</v>
       </c>
       <c r="C10" t="n">
-        <v>3.164138793945312</v>
+        <v>1.668703079223633</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>11.84617519378662</v>
+        <v>-2.958048820495605</v>
       </c>
       <c r="B11" t="n">
-        <v>12.23642921447754</v>
+        <v>1.071966171264648</v>
       </c>
       <c r="C11" t="n">
-        <v>-18.10580062866211</v>
+        <v>2.359493732452393</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-1.457912445068359</v>
+        <v>-2.444142341613769</v>
       </c>
       <c r="B12" t="n">
-        <v>2.939115047454834</v>
+        <v>3.017045021057129</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.4148249626159668</v>
+        <v>3.164138793945312</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.8629045486450195</v>
+        <v>11.84617519378662</v>
       </c>
       <c r="B13" t="n">
-        <v>3.290266990661621</v>
+        <v>12.23642921447754</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8776016235351562</v>
+        <v>-18.10580062866211</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-3.679473400115967</v>
+        <v>-1.457912445068359</v>
       </c>
       <c r="B14" t="n">
-        <v>2.323786020278931</v>
+        <v>2.939115047454834</v>
       </c>
       <c r="C14" t="n">
-        <v>-1.220887899398804</v>
+        <v>-0.4148249626159668</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-4.424082279205322</v>
+        <v>-0.8629045486450195</v>
       </c>
       <c r="B15" t="n">
-        <v>2.453023910522461</v>
+        <v>3.290266990661621</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.3296817541122436</v>
+        <v>0.8776016235351562</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.3798131942749023</v>
+        <v>-3.679473400115967</v>
       </c>
       <c r="B16" t="n">
-        <v>1.398460149765015</v>
+        <v>2.323786020278931</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1842668354511261</v>
+        <v>-1.220887899398804</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-1.503312110900879</v>
+        <v>-4.424082279205322</v>
       </c>
       <c r="B17" t="n">
-        <v>2.368537425994873</v>
+        <v>2.453023910522461</v>
       </c>
       <c r="C17" t="n">
-        <v>1.035360455513</v>
+        <v>-0.3296817541122436</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-1.999871730804444</v>
+        <v>-0.3798131942749023</v>
       </c>
       <c r="B18" t="n">
-        <v>2.280814170837402</v>
+        <v>1.398460149765015</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2208117842674255</v>
+        <v>0.1842668354511261</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
+        <v>-1.503312110900879</v>
+      </c>
+      <c r="B19" t="n">
+        <v>2.368537425994873</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.035360455513</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>-1.999871730804444</v>
+      </c>
+      <c r="B20" t="n">
+        <v>2.280814170837402</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.2208117842674255</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
         <v>-1.399001121520996</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B21" t="n">
         <v>2.387249946594238</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C21" t="n">
         <v>-0.2009698152542114</v>
       </c>
     </row>

--- a/spliced/falling/2023-03-25_18-01-55/accelerometer_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-01-55/accelerometer_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-1.97176456451416</v>
+        <v>-2.243617534637451</v>
       </c>
       <c r="B2" t="n">
-        <v>1.745009422302246</v>
+        <v>1.99995231628418</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4838592410087585</v>
+        <v>0.6877330541610718</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-1.845728397369385</v>
+        <v>-1.472963809967041</v>
       </c>
       <c r="B3" t="n">
-        <v>1.672563552856445</v>
+        <v>1.918478488922119</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5211508870124817</v>
+        <v>0.357224702835083</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-2.323234558105469</v>
+        <v>-2.048044681549072</v>
       </c>
       <c r="B4" t="n">
-        <v>1.572612762451172</v>
+        <v>1.973574161529541</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7384862899780273</v>
+        <v>0.7422993183135986</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-3.269093036651612</v>
+        <v>-1.858012676239014</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9374399185180664</v>
+        <v>2.016510963439941</v>
       </c>
       <c r="C5" t="n">
-        <v>1.780844926834106</v>
+        <v>0.136701762676239</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-1.246297359466553</v>
+        <v>-1.831352233886719</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5547242164611816</v>
+        <v>1.850147724151612</v>
       </c>
       <c r="C6" t="n">
-        <v>1.987784385681152</v>
+        <v>0.5375880002975464</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-2.729167938232422</v>
+        <v>-1.778313636779785</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9446659088134766</v>
+        <v>1.832831382751465</v>
       </c>
       <c r="C7" t="n">
-        <v>2.494723320007324</v>
+        <v>0.6446512937545776</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-2.581250190734864</v>
+        <v>-1.913262844085693</v>
       </c>
       <c r="B8" t="n">
-        <v>-1.341118812561035</v>
+        <v>1.87591552734375</v>
       </c>
       <c r="C8" t="n">
-        <v>3.135838031768799</v>
+        <v>0.3856300711631775</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-3.531517744064331</v>
+        <v>-2.06378698348999</v>
       </c>
       <c r="B9" t="n">
-        <v>-1.318747520446777</v>
+        <v>1.738418102264404</v>
       </c>
       <c r="C9" t="n">
-        <v>3.353370428085327</v>
+        <v>0.8020429015159607</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-4.357868194580078</v>
+        <v>-1.788212299346924</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.8888802528381348</v>
+        <v>1.889766216278076</v>
       </c>
       <c r="C10" t="n">
-        <v>1.668703079223633</v>
+        <v>0.3115454912185669</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-2.958048820495605</v>
+        <v>-1.937233924865723</v>
       </c>
       <c r="B11" t="n">
-        <v>1.071966171264648</v>
+        <v>1.803182125091553</v>
       </c>
       <c r="C11" t="n">
-        <v>2.359493732452393</v>
+        <v>0.8862782716751099</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-2.444142341613769</v>
+        <v>-2.046533107757568</v>
       </c>
       <c r="B12" t="n">
-        <v>3.017045021057129</v>
+        <v>1.845665454864502</v>
       </c>
       <c r="C12" t="n">
-        <v>3.164138793945312</v>
+        <v>0.7709857225418091</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>11.84617519378662</v>
+        <v>-1.904958724975586</v>
       </c>
       <c r="B13" t="n">
-        <v>12.23642921447754</v>
+        <v>1.821238040924072</v>
       </c>
       <c r="C13" t="n">
-        <v>-18.10580062866211</v>
+        <v>0.7353460788726807</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-1.457912445068359</v>
+        <v>-1.893377780914306</v>
       </c>
       <c r="B14" t="n">
-        <v>2.939115047454834</v>
+        <v>1.849058628082276</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.4148249626159668</v>
+        <v>0.4389755129814148</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.8629045486450195</v>
+        <v>-1.822815418243408</v>
       </c>
       <c r="B15" t="n">
-        <v>3.290266990661621</v>
+        <v>1.71094799041748</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8776016235351562</v>
+        <v>0.5070880651473999</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-3.679473400115967</v>
+        <v>-1.894952774047852</v>
       </c>
       <c r="B16" t="n">
-        <v>2.323786020278931</v>
+        <v>1.727813243865967</v>
       </c>
       <c r="C16" t="n">
-        <v>-1.220887899398804</v>
+        <v>0.551978588104248</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-4.424082279205322</v>
+        <v>-1.988187789916992</v>
       </c>
       <c r="B17" t="n">
-        <v>2.453023910522461</v>
+        <v>1.761092185974121</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.3296817541122436</v>
+        <v>0.5642168521881104</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.3798131942749023</v>
+        <v>-1.921907901763916</v>
       </c>
       <c r="B18" t="n">
-        <v>1.398460149765015</v>
+        <v>1.732572555541992</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1842668354511261</v>
+        <v>0.5020300149917603</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-1.503312110900879</v>
+        <v>-1.923232555389404</v>
       </c>
       <c r="B19" t="n">
-        <v>2.368537425994873</v>
+        <v>1.782273769378662</v>
       </c>
       <c r="C19" t="n">
-        <v>1.035360455513</v>
+        <v>0.3185268342494964</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-1.999871730804444</v>
+        <v>-1.910520076751709</v>
       </c>
       <c r="B20" t="n">
-        <v>2.280814170837402</v>
+        <v>1.814604759216309</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2208117842674255</v>
+        <v>0.3955313861370086</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-1.399001121520996</v>
+        <v>-2.009746074676514</v>
       </c>
       <c r="B21" t="n">
-        <v>2.387249946594238</v>
+        <v>1.783975601196289</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.2009698152542114</v>
+        <v>0.4257155656814575</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-1.97176456451416</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1.745009422302246</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4838592410087585</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-1.845728397369385</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1.672563552856445</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.5211508870124817</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-2.323234558105469</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1.572612762451172</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.7384862899780273</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-3.269093036651612</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.9374399185180664</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.780844926834106</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-1.246297359466553</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.5547242164611816</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1.987784385681152</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-2.729167938232422</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.9446659088134766</v>
+      </c>
+      <c r="C27" t="n">
+        <v>2.494723320007324</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-2.581250190734864</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-1.341118812561035</v>
+      </c>
+      <c r="C28" t="n">
+        <v>3.135838031768799</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-3.531517744064331</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-1.318747520446777</v>
+      </c>
+      <c r="C29" t="n">
+        <v>3.353370428085327</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-4.357868194580078</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-0.8888802528381348</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1.668703079223633</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-2.958048820495605</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1.071966171264648</v>
+      </c>
+      <c r="C31" t="n">
+        <v>2.359493732452393</v>
       </c>
     </row>
   </sheetData>
